--- a/ProcessingSets.xlsx
+++ b/ProcessingSets.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01425453\Google Drive\SATIM\R codes and outputs\SATIM General Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01425453\Documents\R\gdxplore\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="PassengerModes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <sheet name="mincledual" sheetId="7" r:id="rId6"/>
     <sheet name="mincldual_a" sheetId="8" r:id="rId7"/>
     <sheet name="mfuelpwr" sheetId="9" r:id="rId8"/>
-    <sheet name="minclpwr" sheetId="3" r:id="rId9"/>
+    <sheet name="Fuels" sheetId="10" r:id="rId9"/>
+    <sheet name="Fuels2" sheetId="11" r:id="rId10"/>
+    <sheet name="minclpwr" sheetId="3" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
   <si>
     <t>TPPRCAR</t>
   </si>
@@ -221,13 +223,82 @@
   </si>
   <si>
     <t>PWRWND</t>
+  </si>
+  <si>
+    <t>Fuels</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>Methanol</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Fuels2</t>
+  </si>
+  <si>
+    <t>LPG</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Gasoline</t>
+  </si>
+  <si>
+    <t>HFO</t>
+  </si>
+  <si>
+    <t>AviationFuel</t>
+  </si>
+  <si>
+    <t>BioDiesel</t>
+  </si>
+  <si>
+    <t>BioEthanol</t>
+  </si>
+  <si>
+    <t>BiomassOther</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>Crude Oil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,13 +306,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -256,8 +341,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,6 +683,161 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
@@ -865,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,57 +1251,117 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>22</v>
+      <c r="A1" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/ProcessingSets.xlsx
+++ b/ProcessingSets.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="715" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="PassengerModes" sheetId="1" r:id="rId1"/>
@@ -628,7 +628,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A12" sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +688,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection sqref="A1:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +843,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A7" sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +888,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A4" sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,7 +918,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A5" sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,7 +953,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,7 +1108,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
